--- a/최종발표/4.엔티티타입 도출 및 정의서.xlsx
+++ b/최종발표/4.엔티티타입 도출 및 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B36AF6-67F3-4557-A473-547BFC87C3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F1D7EE-F558-46A2-B5E3-8C8365DEB4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,1890 +70,6 @@
   </si>
   <si>
     <t>사용자관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>온라인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DEJH 멀티플렉스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">를 이용하는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사용자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">과 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>비회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">가 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>존재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">한다. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사용자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회원가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>절차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'를 통해 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">와 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전화번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>생년월일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">을 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하면, '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>본인인증</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>절차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">한다. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>본인인증</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">이 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>완료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">하면, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회원가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>절차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">가 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>완료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">하여 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">이 된다. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">은 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>예매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 및 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>결제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">를 통해 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>포인트 점수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>누적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">할 수 있다. 
-또한, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>최애장르</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">하여, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>웹 메인페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>접근</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 시 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>장르</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">에 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>연관</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">된 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>영화정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">를 손쉽게 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 가능하다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사용자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>비회원 로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>절차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'를 통해 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>임시비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전화번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>생년월일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">을 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하면, '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>본인인증</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>절차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">한다. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>본인인증</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">이 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>완료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">하면, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>비회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">이 된다. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>비회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">은 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>포인트 점수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>누적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">할 수 없다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">과 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>비회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">의 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">된 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>생년월일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">을 통해 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>청소년 시청불가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">에 따른 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시청가능여부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">가 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>판단</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">된다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사용자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가 '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관리자 로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>절차</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'를 통해 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">를 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">하면, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>지정된 관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">가 맞는지 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">을 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">한다. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관리자정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">와 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>일치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">하면 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관리자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">가 된다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DEJH 멀티플렉스 영화과 체인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">을 전반적으로 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>담당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">한다. </t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -14732,20 +12848,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>식별문자
-상영일자
-상영관_식별문자
-영화_식별문자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석문자
-상영관_식별문자
-상영일정_식별문자
-좌석여부</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MOVIEGOERS</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -14759,12 +12861,6 @@
     <t>식별문자
 관객수
 예매시각</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매_식별문자
-좌석_식별문자
-관객방식_식별문자</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -14898,6 +12994,1891 @@
     <t>완료한 결제 정보 중 포인트를 기록한 내역 정보</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>온라인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEJH 멀티플렉스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 이용하는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">과 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>존재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">한다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>절차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'를 통해 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">와 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생년월일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">을 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하면, '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>본인인증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>절차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">한다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>본인인증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">하면, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>절차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">하여 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이 된다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>예매</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 통해 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포인트 점수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>누적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">할 수 있다. 
+또한, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>최애장르</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">하여, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>웹 메인페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>접근</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 시 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장르</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">에 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연관</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">된 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>영화정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 손쉽게 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 가능하다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비회원 로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>절차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'를 통해 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임시비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생년월일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">을 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하면, '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>본인인증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>절차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">한다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>본인인증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">하면, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">이 된다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>포인트 점수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>누적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">할 수 없다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">과 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">된 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>생년월일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">을 통해 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>청소년 시청불가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">에 따른 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시청가능여부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">가 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>판단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">된다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가 '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리자 로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>절차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'를 통해 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">하면, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지정된 관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">가 맞는지 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">을 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">한다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리자정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">와 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">하면 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">가 된다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DEJH 멀티플렉스 영화과 체인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">을 전반적으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>담당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">한다. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자
+상영일자
+영화관_식별문자
+상영관_식별문자
+영화_식별문자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석문자
+영화관_식별문자
+상영관_식별문자
+상영일정_식별문자
+좌석여부</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매_식별문자
+좌석_좌석문자
+영화관_식별문자
+상영관_식별문자
+상영일정_식별문자
+관객방식_식별문자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -15010,18 +14991,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15038,6 +15007,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -15322,7 +15303,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:D6"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -15335,12 +15316,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -15375,31 +15356,31 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="350" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
@@ -15415,21 +15396,21 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="350" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15452,8 +15433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31473CD9-62CD-481D-86E2-888580AA670C}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -15466,12 +15447,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
@@ -15493,7 +15474,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -15506,25 +15487,25 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="400" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15542,8 +15523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44290A33-AC19-4019-A988-7B5B0150A0FF}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -15556,12 +15537,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -15583,7 +15564,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -15596,25 +15577,25 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="150" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15632,8 +15613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CCB06E-4EB5-46DC-8D2F-18D3F58F289B}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -15646,12 +15627,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -15673,7 +15654,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -15686,31 +15667,31 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="400" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15728,8 +15709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35460E81-F9E8-4A96-B3FC-7DFBB4B81D7F}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -15742,12 +15723,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -15769,7 +15750,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -15782,25 +15763,25 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="280" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15818,84 +15799,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF0153D-B279-4B1E-8B25-C0DC1D62412B}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="100.58203125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="15"/>
+    <col min="1" max="1" width="100.58203125" style="11" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
-        <v>85</v>
+      <c r="A1" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="402.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="16" t="s">
-        <v>87</v>
+      <c r="A4" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="402.5" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
-        <v>89</v>
+      <c r="A7" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="367.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
-        <v>90</v>
+      <c r="A10" s="12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="210" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
-        <v>92</v>
+      <c r="A13" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="175" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
-        <v>94</v>
+      <c r="A16" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="157.5" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="16" t="s">
-        <v>97</v>
+      <c r="A19" s="12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="175" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -15908,8 +15889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E8B3AA-CD84-465C-86B8-2556896834F3}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -15923,479 +15904,479 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="175" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="70" x14ac:dyDescent="0.45">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="35" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="D6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="35" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="122.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>41</v>
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="157.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>41</v>
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="35" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>41</v>
+      <c r="A11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="35" x14ac:dyDescent="0.45">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="87.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="13" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="87.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="B16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" ht="70" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="13" t="s">
+    <row r="17" spans="1:5" ht="87.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="70" x14ac:dyDescent="0.45">
-      <c r="A17" s="13" t="s">
+      <c r="B17" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>31</v>
+      <c r="A18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="13" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="105" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="13" t="s">
+      <c r="B20" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="35" x14ac:dyDescent="0.45">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="35" x14ac:dyDescent="0.45">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="70" x14ac:dyDescent="0.45">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="87.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="87.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="70" x14ac:dyDescent="0.45">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/최종발표/4.엔티티타입 도출 및 정의서.xlsx
+++ b/최종발표/4.엔티티타입 도출 및 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F1D7EE-F558-46A2-B5E3-8C8365DEB4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0E3261-B5F2-4493-A6B0-8F634DF52842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12784,18 +12784,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>아이디
-비밀번호
-이름
-이메일
-전화번호
-생년월일
-본인인증여부
-시청가능여부
-누적포인트</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>MEMBERS_INFO</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -14877,6 +14865,18 @@
 상영관_식별문자
 상영일정_식별문자
 관객방식_식별문자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디
+비밀번호
+이름
+이메일
+전화번호
+생년월일
+본인인증여부
+시청가능여부
+총포인트</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -15362,7 +15362,7 @@
     </row>
     <row r="5" spans="1:6" ht="350" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -15799,7 +15799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF0153D-B279-4B1E-8B25-C0DC1D62412B}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -15889,8 +15889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E8B3AA-CD84-465C-86B8-2556896834F3}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -16027,7 +16027,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>40</v>
@@ -16044,33 +16044,33 @@
         <v>44</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="35" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
@@ -16078,16 +16078,16 @@
         <v>45</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="35" x14ac:dyDescent="0.45">
@@ -16095,13 +16095,13 @@
         <v>46</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>47</v>
@@ -16112,13 +16112,13 @@
         <v>48</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>49</v>
@@ -16135,7 +16135,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>52</v>
@@ -16146,13 +16146,13 @@
         <v>53</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>55</v>
@@ -16163,13 +16163,13 @@
         <v>56</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>57</v>
@@ -16180,13 +16180,13 @@
         <v>58</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>59</v>
@@ -16197,16 +16197,16 @@
         <v>60</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="52.5" x14ac:dyDescent="0.45">
@@ -16214,13 +16214,13 @@
         <v>61</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>63</v>
@@ -16231,13 +16231,13 @@
         <v>64</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>66</v>
@@ -16248,13 +16248,13 @@
         <v>67</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>68</v>
@@ -16271,7 +16271,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>71</v>
@@ -16282,13 +16282,13 @@
         <v>72</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>73</v>
@@ -16299,13 +16299,13 @@
         <v>74</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>75</v>
@@ -16316,13 +16316,13 @@
         <v>76</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>77</v>
@@ -16333,13 +16333,13 @@
         <v>78</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>79</v>
@@ -16350,13 +16350,13 @@
         <v>80</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>81</v>
@@ -16367,13 +16367,13 @@
         <v>82</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>83</v>
